--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>872680.3683683772</v>
+        <v>868540.6619544205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10347935.11637022</v>
+        <v>10344985.21941812</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>385.3787523373068</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.30884810289971</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>106.2933255704518</v>
       </c>
       <c r="G3" t="n">
-        <v>108.8954510456192</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>70.99069090146993</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>314.3873793921091</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>251.8204246395946</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>82.82916549804719</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>38.22848769911778</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>7.303185746466505</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7.419120249549894</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.6042614529978</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>290.7998347879931</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.1903889480794</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>116.7238898641494</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>209.556736413127</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>154.7176049963808</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1531,7 +1531,7 @@
         <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465755</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.56424265033795</v>
       </c>
       <c r="H13" t="n">
         <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>119.5423402142987</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,13 +1585,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>49.39596688395714</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>193.5513632593876</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>7.438734660496947</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456093</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.96156154549923</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879322</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414342</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404354</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007186</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035427</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.085507492194</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507311</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484038</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723251</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380455</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497648</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.6707049994324</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999.5681885840261</v>
+        <v>1588.818992668937</v>
       </c>
       <c r="C2" t="n">
-        <v>606.3926870869566</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="D2" t="n">
-        <v>606.3926870869566</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.9374095968</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>1978.27159773588</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>1978.27159773588</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1978.27159773588</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>1978.27159773588</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737749</v>
+        <v>1978.27159773588</v>
       </c>
       <c r="X2" t="n">
-        <v>1785.330364670805</v>
+        <v>1588.818992668937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1388.839655591407</v>
+        <v>1588.818992668937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.7972297032354</v>
+        <v>735.5070029058111</v>
       </c>
       <c r="C3" t="n">
-        <v>682.1429992633276</v>
+        <v>584.8527724659033</v>
       </c>
       <c r="D3" t="n">
-        <v>552.054031884808</v>
+        <v>454.7638050873836</v>
       </c>
       <c r="E3" t="n">
-        <v>415.6075409956957</v>
+        <v>318.3173141982713</v>
       </c>
       <c r="F3" t="n">
-        <v>291.1757348788275</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>813.5918890426557</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>813.5918890426557</v>
       </c>
       <c r="N3" t="n">
-        <v>1498.174658585115</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535682</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214324</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585391</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718678</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068689</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641441968</v>
+        <v>887.3033373467724</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.0268946576628</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>688.0268946576628</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D4" t="n">
-        <v>688.0268946576628</v>
+        <v>841.5932941600438</v>
       </c>
       <c r="E4" t="n">
-        <v>688.0268946576628</v>
+        <v>686.0344820192463</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706356</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865303</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>873.234913348964</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.234913348964</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.2263775214976</v>
+        <v>1323.115705536067</v>
       </c>
       <c r="C5" t="n">
-        <v>449.0508760244282</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D5" t="n">
-        <v>449.0508760244282</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>449.0508760244282</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>436.19684159481</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793366</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978654</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207958</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.74336884542</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.16969166784</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.16969166784</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="X5" t="n">
-        <v>1238.717086600896</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="Y5" t="n">
-        <v>842.2263775214976</v>
+        <v>1640.678715023046</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>720.8094119682338</v>
       </c>
       <c r="C6" t="n">
-        <v>655.8134179021438</v>
+        <v>570.155181528326</v>
       </c>
       <c r="D6" t="n">
-        <v>525.7244505236241</v>
+        <v>440.0662141498064</v>
       </c>
       <c r="E6" t="n">
-        <v>389.2779596345118</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>264.8461535176436</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>98.17903122826914</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>581.7451171265824</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136675</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146768</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737749</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1940.231660716792</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1763.247848915701</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1553.184705594342</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1330.644703965409</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1100.527458098696</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>911.2203804487081</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>872.6057464091951</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.160280169858</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="C7" t="n">
-        <v>518.160280169858</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="D7" t="n">
-        <v>362.5271670723727</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="E7" t="n">
-        <v>206.9683549315752</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315752</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315752</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865303</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W7" t="n">
-        <v>937.4486210781762</v>
+        <v>421.792425708026</v>
       </c>
       <c r="X7" t="n">
-        <v>703.3682988611592</v>
+        <v>421.792425708026</v>
       </c>
       <c r="Y7" t="n">
-        <v>703.3682988611592</v>
+        <v>421.792425708026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.5971671495322</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="C8" t="n">
-        <v>632.5971671495322</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D8" t="n">
-        <v>632.5971671495322</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>632.5971671495322</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="Y8" t="n">
-        <v>1033.091912860929</v>
+        <v>1339.790331424607</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0429194582225</v>
+        <v>847.557579564228</v>
       </c>
       <c r="D10" t="n">
-        <v>622.0429194582225</v>
+        <v>691.9244664667428</v>
       </c>
       <c r="E10" t="n">
-        <v>622.0429194582225</v>
+        <v>536.3656543259453</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1557.030656569138</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C11" t="n">
-        <v>1235.651430218262</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D11" t="n">
-        <v>1235.651430218262</v>
+        <v>711.7339944900338</v>
       </c>
       <c r="E11" t="n">
-        <v>904.8641804810002</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F11" t="n">
-        <v>559.7660171571719</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>218.3995367913689</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873814</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873814</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988295</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067546</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.729127134341</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="12">
@@ -5124,7 +5124,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>691.2836731261136</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
         <v>1319.055322752795</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.9727833788482</v>
+        <v>509.0312489714513</v>
       </c>
       <c r="C13" t="n">
-        <v>229.5639405910313</v>
+        <v>410.6224061836344</v>
       </c>
       <c r="D13" t="n">
-        <v>229.5639405910313</v>
+        <v>326.7855682323432</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>243.0230312377397</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>243.0230312377397</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
         <v>999.6269248138162</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1375.982803214206</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1212.060026528634</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>998.4175099167285</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V13" t="n">
-        <v>804.2344398837467</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="W13" t="n">
-        <v>592.7003129611184</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="X13" t="n">
-        <v>592.7003129611184</v>
+        <v>773.7587785537214</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.3845269239556</v>
+        <v>622.4429925165587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1500.043609187503</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1178.664382836628</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>865.0195291994892</v>
       </c>
       <c r="E14" t="n">
         <v>815.1246131550882</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
         <v>128.6599694654568</v>
@@ -5276,19 +5276,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5297,31 +5297,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205777</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.999930786569</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="W14" t="n">
-        <v>2622.797170901051</v>
+        <v>2471.092843606661</v>
       </c>
       <c r="X14" t="n">
-        <v>2305.140840980302</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1828.742079752706</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456915</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497493</v>
+        <v>480.6216449413089</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619324</v>
+        <v>382.212802153492</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106411</v>
+        <v>298.3759642022006</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>214.6134272075971</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,13 +5437,13 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
         <v>999.6269248138162</v>
@@ -5464,22 +5464,22 @@
         <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1496.732641814508</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>1283.090125202602</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>1088.90705516962</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="W16" t="n">
-        <v>877.3729282469919</v>
+        <v>907.633221594402</v>
       </c>
       <c r="X16" t="n">
-        <v>715.0888811761689</v>
+        <v>745.349174523579</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.8246775948567</v>
+        <v>594.0333884864162</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975444</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099306</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843828</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843828</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655151</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924248</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,7 +5917,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
         <v>806.6193906797589</v>
@@ -5926,34 +5926,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924184</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843828</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678972</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565242</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2956.374511095033</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956128</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="K27" t="n">
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>989.7850731278174</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754499</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985355</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351195</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286454</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988168</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214272</v>
@@ -6464,7 +6464,7 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
@@ -6473,16 +6473,16 @@
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,19 +6491,19 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1107.567702120449</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786169</v>
+        <v>1765.220722740012</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2293.032006377474</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.03502904303</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>612.8479737408637</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465404</v>
+        <v>799.1395520791277</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103369</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,13 +7108,13 @@
         <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>845.847430707221</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,25 +7570,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414175</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599514</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975438</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860693</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860693</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.74490561275</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.52287682331</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072664</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P46" t="n">
         <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984001</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>564.5028797591312</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>305.272005197043</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,19 +8061,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>432.721472113851</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>129.6793274559051</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788147</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>379.6207039547095</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,22 +8295,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>144.8326644580951</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837491</v>
+        <v>406.6596591947254</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.5215849845346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465423</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,10 +8772,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>288.3536975034276</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>543.2755872400994</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416652</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931178</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931178</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286867</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,7 +11151,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>463.967048082375</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>115.8547494464239</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>95.04630253806145</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>59.92895831647901</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.16727037024542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>278.0834103559318</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.8961263344853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>77.23562838392787</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.8410666312919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>901909.7448634173</v>
+        <v>900405.8758290166</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>901909.7448634173</v>
+        <v>900405.8758290166</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813508.8750554664</v>
+        <v>813508.8750554662</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912082.7019995603</v>
+        <v>912082.7019995605</v>
       </c>
     </row>
     <row r="9">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>414764.0096147206</v>
+      </c>
+      <c r="C2" t="n">
+        <v>414764.0096147206</v>
+      </c>
+      <c r="D2" t="n">
         <v>414764.0096147208</v>
-      </c>
-      <c r="C2" t="n">
-        <v>414764.0096147208</v>
-      </c>
-      <c r="D2" t="n">
-        <v>414764.0096147207</v>
       </c>
       <c r="E2" t="n">
         <v>366525.7538761217</v>
       </c>
       <c r="F2" t="n">
-        <v>366525.7538761219</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147204</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="H2" t="n">
-        <v>414764.0096147204</v>
+        <v>414764.0096147211</v>
       </c>
       <c r="I2" t="n">
-        <v>414764.0096147203</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="J2" t="n">
         <v>414764.0096147205</v>
@@ -26344,16 +26344,16 @@
         <v>414764.0096147205</v>
       </c>
       <c r="M2" t="n">
-        <v>414764.0096147211</v>
+        <v>414764.009614721</v>
       </c>
       <c r="N2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="O2" t="n">
-        <v>414764.0096147211</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.0096147205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.911719871807675e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82055073001076e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
@@ -26454,7 +26454,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,37 +26479,37 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984053</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55679.85086609998</v>
+        <v>-51027.63124492529</v>
       </c>
       <c r="C6" t="n">
-        <v>126525.0974257559</v>
+        <v>122831.0257891299</v>
       </c>
       <c r="D6" t="n">
-        <v>118780.5167221354</v>
+        <v>111044.227498744</v>
       </c>
       <c r="E6" t="n">
-        <v>62611.21221771528</v>
+        <v>62401.48067102569</v>
       </c>
       <c r="F6" t="n">
-        <v>174733.7736917599</v>
+        <v>174524.0421450703</v>
       </c>
       <c r="G6" t="n">
-        <v>122804.0377864153</v>
+        <v>122804.0377864158</v>
       </c>
       <c r="H6" t="n">
-        <v>170229.3633230975</v>
+        <v>170229.3633230978</v>
       </c>
       <c r="I6" t="n">
-        <v>170229.363323097</v>
+        <v>170229.3633230976</v>
       </c>
       <c r="J6" t="n">
-        <v>-42812.5542741881</v>
+        <v>-36296.26911961522</v>
       </c>
       <c r="K6" t="n">
-        <v>163989.5949203144</v>
+        <v>163989.5949203142</v>
       </c>
       <c r="L6" t="n">
-        <v>108807.0059856932</v>
+        <v>104758.1687752211</v>
       </c>
       <c r="M6" t="n">
-        <v>128028.5338634749</v>
+        <v>126976.8388522866</v>
       </c>
       <c r="N6" t="n">
-        <v>170229.3633230977</v>
+        <v>170229.3633230976</v>
       </c>
       <c r="O6" t="n">
         <v>142461.6692803266</v>
       </c>
       <c r="P6" t="n">
-        <v>170229.3633230978</v>
+        <v>170229.3633230974</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26747,16 +26747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,25 +26799,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="G4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="G4" t="n">
-        <v>776.4890963014442</v>
-      </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.950619874561665e-14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.11104591697614</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>106.5395714054602</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16.89416248524773</v>
       </c>
       <c r="G3" t="n">
-        <v>9.963768703235019</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>160.7488280933768</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>82.10241886217381</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>157.2107033172822</v>
-      </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.03005425080701</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>139.2925870561301</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.700038272923</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>273.0779777985842</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,10 +27862,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>300.1212326323242</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>76.48920989340229</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>68.3126778065913</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>39.02878557500742</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529923</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901456</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431744</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599538</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683160079</v>
       </c>
       <c r="M32" t="n">
-        <v>86.272911965665</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.8683420224736</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254074</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30180,10 +30180,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>28.01250026485198</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>28.01250026485243</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,43 +30411,43 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>28.01250026485212</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.636002634527671</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.01250026485198</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.01250026485194</v>
+        <v>28.01250026485354</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -31999,25 +31999,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -32081,16 +32081,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32236,25 +32236,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>415.3843884213472</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>155.7081677729466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>342.6611252569327</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>36.99176856701622</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>133.1892414995773</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>230.5022126169254</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.23572912476178</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344372</v>
+        <v>314.2725371454135</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.9577475604382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>93.70171839237568</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,10 +35492,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>198.2933506465093</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35647,25 +35647,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>453.2152403831813</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006882</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
         <v>74.53507640488444</v>
@@ -35884,25 +35884,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L18" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576762</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094888</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644682406</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828092</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>456.599714906096</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>592.2945994425273</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254078</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017816</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700737</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698312</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215733</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492762</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122745</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446888</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625831</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.7984217998118</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167565</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>272.6538368444936</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269322</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>192.3607498019308</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094865</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37938,7 +37938,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>149.0995364028101</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110579</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>371.2794891934861</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.46926427500442</v>
+        <v>31.46926427500603</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
